--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X16 at 4200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X16 at 4200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="11940" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -90,21 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 4200</t>
-  </si>
-  <si>
-    <t>30w</t>
-  </si>
-  <si>
-    <t>75w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -150,7 +135,19 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 4200</t>
+  </si>
+  <si>
+    <t>30w</t>
+  </si>
+  <si>
+    <t>75w</t>
+  </si>
+  <si>
     <t>submax</t>
+  </si>
+  <si>
+    <t>90w</t>
   </si>
   <si>
     <t>105w, submax 2</t>
@@ -158,29 +155,375 @@
   <si>
     <t>stop, max</t>
   </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,20 +531,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -209,6 +841,1088 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.78</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.87</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="596220420"/>
+        <c:axId val="153734845"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="596220420"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153734845"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="153734845"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596220420"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100330</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>351790</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10593070" y="1757680"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,21 +2206,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M19" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A7" sqref="E7:E41 A7:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -528,7 +2242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -587,57 +2301,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.93792824074074066</v>
+        <v>0.937928240740741</v>
       </c>
       <c r="C6">
         <v>123</v>
@@ -649,7 +2363,7 @@
         <v>6.74</v>
       </c>
       <c r="F6">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="G6">
         <v>66</v>
@@ -685,15 +2399,15 @@
         <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B7" s="1">
-        <v>0.94140046296296298</v>
+        <v>0.941400462962963</v>
       </c>
       <c r="C7">
         <v>136</v>
@@ -741,12 +2455,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B8" s="1">
-        <v>0.9415162037037037</v>
+        <v>0.941516203703704</v>
       </c>
       <c r="C8">
         <v>138</v>
@@ -794,12 +2508,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B9" s="1">
-        <v>0.94163194444444442</v>
+        <v>0.941631944444444</v>
       </c>
       <c r="C9">
         <v>139</v>
@@ -847,12 +2561,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B10" s="1">
-        <v>0.94174768518518526</v>
+        <v>0.941747685185185</v>
       </c>
       <c r="C10">
         <v>143</v>
@@ -900,12 +2614,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B11" s="1">
-        <v>0.94186342592592587</v>
+        <v>0.941863425925926</v>
       </c>
       <c r="C11">
         <v>147</v>
@@ -953,12 +2667,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B12" s="1">
-        <v>0.9419791666666667</v>
+        <v>0.941979166666667</v>
       </c>
       <c r="C12">
         <v>150</v>
@@ -1006,12 +2720,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B13" s="1">
-        <v>0.94209490740740742</v>
+        <v>0.942094907407407</v>
       </c>
       <c r="C13">
         <v>153</v>
@@ -1059,12 +2773,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B14" s="1">
-        <v>0.94221064814814814</v>
+        <v>0.942210648148148</v>
       </c>
       <c r="C14">
         <v>158</v>
@@ -1112,12 +2826,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B15" s="1">
-        <v>0.94232638888888898</v>
+        <v>0.942326388888889</v>
       </c>
       <c r="C15">
         <v>161</v>
@@ -1165,12 +2879,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B16" s="1">
-        <v>0.94244212962962959</v>
+        <v>0.94244212962963</v>
       </c>
       <c r="C16">
         <v>163</v>
@@ -1179,7 +2893,7 @@
         <v>53</v>
       </c>
       <c r="E16">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1218,15 +2932,15 @@
         <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B17" s="1">
-        <v>0.94255787037037031</v>
+        <v>0.94255787037037</v>
       </c>
       <c r="C17">
         <v>164</v>
@@ -1235,7 +2949,7 @@
         <v>52</v>
       </c>
       <c r="E17">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="F17">
         <v>5.88</v>
@@ -1274,12 +2988,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B18" s="1">
-        <v>0.94267361111111114</v>
+        <v>0.942673611111111</v>
       </c>
       <c r="C18">
         <v>163</v>
@@ -1327,12 +3041,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B19" s="1">
-        <v>0.94278935185185186</v>
+        <v>0.942789351851852</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -1380,12 +3094,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B20" s="1">
-        <v>0.9429050925925927</v>
+        <v>0.942905092592593</v>
       </c>
       <c r="C20">
         <v>165</v>
@@ -1433,12 +3147,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B21" s="1">
-        <v>0.94302083333333331</v>
+        <v>0.943020833333333</v>
       </c>
       <c r="C21">
         <v>165</v>
@@ -1447,7 +3161,7 @@
         <v>51</v>
       </c>
       <c r="E21">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="F21">
         <v>5.88</v>
@@ -1486,12 +3200,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B22" s="1">
-        <v>0.94313657407407403</v>
+        <v>0.943136574074074</v>
       </c>
       <c r="C22">
         <v>166</v>
@@ -1539,12 +3253,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B23" s="1">
-        <v>0.94325231481481486</v>
+        <v>0.943252314814815</v>
       </c>
       <c r="C23">
         <v>166</v>
@@ -1592,15 +3306,15 @@
         <v>38</v>
       </c>
       <c r="S23" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B24" s="1">
-        <v>0.94336805555555558</v>
+        <v>0.943368055555556</v>
       </c>
       <c r="C24">
         <v>169</v>
@@ -1648,12 +3362,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B25" s="1">
-        <v>0.9434837962962962</v>
+        <v>0.943483796296296</v>
       </c>
       <c r="C25">
         <v>170</v>
@@ -1701,12 +3415,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B26" s="1">
-        <v>0.94359953703703703</v>
+        <v>0.943599537037037</v>
       </c>
       <c r="C26">
         <v>173</v>
@@ -1715,7 +3429,7 @@
         <v>50</v>
       </c>
       <c r="E26">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="F26">
         <v>6.04</v>
@@ -1754,12 +3468,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B27" s="1">
-        <v>0.94371527777777775</v>
+        <v>0.943715277777778</v>
       </c>
       <c r="C27">
         <v>174</v>
@@ -1822,12 +3536,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B28" s="1">
-        <v>0.94383101851851858</v>
+        <v>0.943831018518519</v>
       </c>
       <c r="C28">
         <v>176</v>
@@ -1836,7 +3550,7 @@
         <v>49</v>
       </c>
       <c r="E28">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="F28">
         <v>6.05</v>
@@ -1890,12 +3604,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B29" s="1">
-        <v>0.94406249999999992</v>
+        <v>0.9440625</v>
       </c>
       <c r="C29">
         <v>178</v>
@@ -1943,11 +3657,11 @@
         <v>40</v>
       </c>
       <c r="S29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U29" s="2">
         <f>AVERAGE(C24:C29)</f>
-        <v>173.33333333333334</v>
+        <v>173.333333333333</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" ref="V29:AI29" si="0">AVERAGE(D24:D29)</f>
@@ -1955,19 +3669,19 @@
       </c>
       <c r="W29" s="2">
         <f t="shared" si="0"/>
-        <v>8.7033333333333331</v>
+        <v>8.70333333333333</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="0"/>
-        <v>5.9883333333333333</v>
+        <v>5.98833333333333</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="0"/>
-        <v>67.666666666666671</v>
+        <v>67.6666666666667</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="0"/>
-        <v>179.16666666666666</v>
+        <v>179.166666666667</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="0"/>
@@ -1979,7 +3693,7 @@
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="0"/>
-        <v>75.166666666666671</v>
+        <v>75.1666666666667</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="0"/>
@@ -1987,31 +3701,31 @@
       </c>
       <c r="AE29" s="2">
         <f t="shared" si="0"/>
-        <v>793.33333333333337</v>
+        <v>793.333333333333</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="0"/>
-        <v>1152.6666666666667</v>
+        <v>1152.66666666667</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="0"/>
-        <v>7.1883333333333326</v>
+        <v>7.18833333333333</v>
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="0"/>
-        <v>151.83333333333334</v>
+        <v>151.833333333333</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B30" s="1">
-        <v>0.94417824074074075</v>
+        <v>0.944178240740741</v>
       </c>
       <c r="C30">
         <v>178</v>
@@ -2020,7 +3734,7 @@
         <v>51</v>
       </c>
       <c r="E30">
-        <v>9.2100000000000009</v>
+        <v>9.21</v>
       </c>
       <c r="F30">
         <v>6.34</v>
@@ -2059,7 +3773,7 @@
         <v>39</v>
       </c>
       <c r="S30" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -2077,12 +3791,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B31" s="1">
-        <v>0.94429398148148147</v>
+        <v>0.944293981481481</v>
       </c>
       <c r="C31">
         <v>182</v>
@@ -2145,12 +3859,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B32" s="1">
-        <v>0.94440972222222219</v>
+        <v>0.944409722222222</v>
       </c>
       <c r="C32">
         <v>182</v>
@@ -2213,12 +3927,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B33" s="1">
-        <v>0.94452546296296302</v>
+        <v>0.944525462962963</v>
       </c>
       <c r="C33">
         <v>182</v>
@@ -2281,12 +3995,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B34" s="1">
-        <v>0.94464120370370364</v>
+        <v>0.944641203703704</v>
       </c>
       <c r="C34">
         <v>184</v>
@@ -2295,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="E34">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="F34">
         <v>5.65</v>
@@ -2349,12 +4063,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B35" s="1">
-        <v>0.94475694444444447</v>
+        <v>0.944756944444444</v>
       </c>
       <c r="C35">
         <v>184</v>
@@ -2402,7 +4116,7 @@
         <v>47</v>
       </c>
       <c r="S35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U35" s="2">
         <f>AVERAGE(C30:C35)</f>
@@ -2410,15 +4124,15 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ref="V35:AI35" si="1">AVERAGE(D30:D35)</f>
-        <v>47.333333333333336</v>
+        <v>47.3333333333333</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="1"/>
-        <v>8.7133333333333329</v>
+        <v>8.71333333333333</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="1"/>
-        <v>5.9950000000000001</v>
+        <v>5.995</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="1"/>
@@ -2434,43 +4148,43 @@
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="1"/>
-        <v>113.16666666666667</v>
+        <v>113.166666666667</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="1"/>
-        <v>73.166666666666671</v>
+        <v>73.1666666666667</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" si="1"/>
-        <v>70.333333333333329</v>
+        <v>70.3333333333333</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="1"/>
-        <v>776.83333333333337</v>
+        <v>776.833333333333</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="1"/>
-        <v>1129.1666666666667</v>
+        <v>1129.16666666667</v>
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="1"/>
-        <v>7.0516666666666667</v>
+        <v>7.05166666666667</v>
       </c>
       <c r="AH35" s="2">
         <f t="shared" si="1"/>
-        <v>146.33333333333334</v>
+        <v>146.333333333333</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="1"/>
-        <v>43.166666666666664</v>
+        <v>43.1666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B36" s="1">
-        <v>0.94487268518518519</v>
+        <v>0.944872685185185</v>
       </c>
       <c r="C36">
         <v>185</v>
@@ -2533,12 +4247,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B37" s="1">
-        <v>0.94498842592592591</v>
+        <v>0.944988425925926</v>
       </c>
       <c r="C37">
         <v>185</v>
@@ -2601,12 +4315,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B38" s="1">
-        <v>0.94510416666666675</v>
+        <v>0.945104166666667</v>
       </c>
       <c r="C38">
         <v>186</v>
@@ -2654,7 +4368,7 @@
         <v>40</v>
       </c>
       <c r="S38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" s="2">
         <f>AVERAGE(C35:C38)</f>
@@ -2666,11 +4380,11 @@
       </c>
       <c r="W38" s="2">
         <f t="shared" si="2"/>
-        <v>8.5850000000000009</v>
+        <v>8.585</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="2"/>
-        <v>5.9074999999999998</v>
+        <v>5.9075</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="2"/>
@@ -2706,7 +4420,7 @@
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="2"/>
-        <v>6.8599999999999994</v>
+        <v>6.86</v>
       </c>
       <c r="AH38" s="2">
         <f t="shared" si="2"/>
@@ -2717,12 +4431,12 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B39" s="1">
-        <v>0.94521990740740736</v>
+        <v>0.945219907407407</v>
       </c>
       <c r="C39">
         <v>183</v>
@@ -2731,7 +4445,7 @@
         <v>48</v>
       </c>
       <c r="E39">
-        <v>8.8699999999999992</v>
+        <v>8.87</v>
       </c>
       <c r="F39">
         <v>6.1</v>
@@ -2770,12 +4484,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B40" s="1">
-        <v>0.94533564814814808</v>
+        <v>0.945335648148148</v>
       </c>
       <c r="C40">
         <v>180</v>
@@ -2823,12 +4537,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B41" s="1">
-        <v>0.94545138888888891</v>
+        <v>0.945451388888889</v>
       </c>
       <c r="C41">
         <v>180</v>
@@ -2876,36 +4590,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>